--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value838.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value838.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6348373449163078</v>
+        <v>0.9298990368843079</v>
       </c>
       <c r="B1">
-        <v>1.600909391599489</v>
+        <v>1.314310073852539</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.579891681671143</v>
       </c>
       <c r="D1">
-        <v>2.678294110334378</v>
+        <v>3.042361974716187</v>
       </c>
       <c r="E1">
-        <v>1.593962286279308</v>
+        <v>0.564439058303833</v>
       </c>
     </row>
   </sheetData>
